--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N2">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O2">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P2">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q2">
-        <v>3765.260776268489</v>
+        <v>2464.102117355514</v>
       </c>
       <c r="R2">
-        <v>33887.3469864164</v>
+        <v>22176.91905619963</v>
       </c>
       <c r="S2">
-        <v>0.1648691178492865</v>
+        <v>0.1259211973066635</v>
       </c>
       <c r="T2">
-        <v>0.1648691178492865</v>
+        <v>0.1259211973066635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.696291</v>
       </c>
       <c r="O3">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P3">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q3">
-        <v>1878.217755635809</v>
+        <v>2329.737310175928</v>
       </c>
       <c r="R3">
-        <v>16903.95980072228</v>
+        <v>20967.63579158335</v>
       </c>
       <c r="S3">
-        <v>0.08224134340236247</v>
+        <v>0.1190548514370003</v>
       </c>
       <c r="T3">
-        <v>0.08224134340236246</v>
+        <v>0.1190548514370003</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H4">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N4">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O4">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P4">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q4">
-        <v>2946.544641423421</v>
+        <v>4065.2160988596</v>
       </c>
       <c r="R4">
-        <v>26518.90177281079</v>
+        <v>36586.9448897364</v>
       </c>
       <c r="S4">
-        <v>0.129020071809332</v>
+        <v>0.2077417469321827</v>
       </c>
       <c r="T4">
-        <v>0.129020071809332</v>
+        <v>0.2077417469321827</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H5">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N5">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O5">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P5">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q5">
-        <v>340.435914041932</v>
+        <v>599.4299497125755</v>
       </c>
       <c r="R5">
-        <v>3063.923226377388</v>
+        <v>5394.86954741318</v>
       </c>
       <c r="S5">
-        <v>0.01490663520201996</v>
+        <v>0.03063222763279272</v>
       </c>
       <c r="T5">
-        <v>0.01490663520201996</v>
+        <v>0.03063222763279273</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N6">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O6">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P6">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q6">
-        <v>1516.714923133271</v>
+        <v>800.2148168630725</v>
       </c>
       <c r="R6">
-        <v>13650.43430819943</v>
+        <v>7201.933351767652</v>
       </c>
       <c r="S6">
-        <v>0.06641225303221862</v>
+        <v>0.04089278895229836</v>
       </c>
       <c r="T6">
-        <v>0.06641225303221861</v>
+        <v>0.04089278895229836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>34.696291</v>
       </c>
       <c r="O7">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P7">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q7">
         <v>756.579973642595</v>
@@ -883,10 +883,10 @@
         <v>6809.219762783355</v>
       </c>
       <c r="S7">
-        <v>0.03312829582032555</v>
+        <v>0.03866294966767169</v>
       </c>
       <c r="T7">
-        <v>0.03312829582032555</v>
+        <v>0.0386629496676717</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N8">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O8">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P8">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q8">
-        <v>1186.921303696336</v>
+        <v>1320.175058146102</v>
       </c>
       <c r="R8">
-        <v>10682.29173326703</v>
+        <v>11881.57552331492</v>
       </c>
       <c r="S8">
-        <v>0.05197161097852902</v>
+        <v>0.06746393455258207</v>
       </c>
       <c r="T8">
-        <v>0.05197161097852902</v>
+        <v>0.06746393455258208</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N9">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O9">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P9">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q9">
-        <v>137.1337237655102</v>
+        <v>194.6643055305989</v>
       </c>
       <c r="R9">
-        <v>1234.203513889592</v>
+        <v>1751.97874977539</v>
       </c>
       <c r="S9">
-        <v>0.006004661405421666</v>
+        <v>0.009947786762827001</v>
       </c>
       <c r="T9">
-        <v>0.006004661405421664</v>
+        <v>0.009947786762827005</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H10">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N10">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O10">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P10">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q10">
-        <v>1418.479733000486</v>
+        <v>739.2663360275103</v>
       </c>
       <c r="R10">
-        <v>12766.31759700437</v>
+        <v>6653.397024247593</v>
       </c>
       <c r="S10">
-        <v>0.06211083804363979</v>
+        <v>0.037778183584777</v>
       </c>
       <c r="T10">
-        <v>0.06211083804363979</v>
+        <v>0.037778183584777</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H11">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>34.696291</v>
       </c>
       <c r="O11">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P11">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q11">
-        <v>707.5775036148723</v>
+        <v>698.9549471467205</v>
       </c>
       <c r="R11">
-        <v>6368.197532533851</v>
+        <v>6290.594524320485</v>
       </c>
       <c r="S11">
-        <v>0.03098262929522676</v>
+        <v>0.03571818034172503</v>
       </c>
       <c r="T11">
-        <v>0.03098262929522677</v>
+        <v>0.03571818034172505</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H12">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N12">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O12">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P12">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q12">
-        <v>1110.046316734124</v>
+        <v>1219.623728008993</v>
       </c>
       <c r="R12">
-        <v>9990.416850607118</v>
+        <v>10976.61355208094</v>
       </c>
       <c r="S12">
-        <v>0.04860549318795834</v>
+        <v>0.06232553391875169</v>
       </c>
       <c r="T12">
-        <v>0.04860549318795835</v>
+        <v>0.0623255339187517</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H13">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N13">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O13">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P13">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q13">
-        <v>128.2517926773053</v>
+        <v>179.8376696761044</v>
       </c>
       <c r="R13">
-        <v>1154.266134095748</v>
+        <v>1618.53902708494</v>
       </c>
       <c r="S13">
-        <v>0.005615749128072916</v>
+        <v>0.009190112100856617</v>
       </c>
       <c r="T13">
-        <v>0.005615749128072915</v>
+        <v>0.00919011210085662</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H14">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N14">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O14">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P14">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q14">
-        <v>2928.452205697459</v>
+        <v>1094.383003735195</v>
       </c>
       <c r="R14">
-        <v>26356.06985127713</v>
+        <v>9849.447033616751</v>
       </c>
       <c r="S14">
-        <v>0.1282278600356656</v>
+        <v>0.0559254493439146</v>
       </c>
       <c r="T14">
-        <v>0.1282278600356656</v>
+        <v>0.05592544934391461</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H15">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>34.696291</v>
       </c>
       <c r="O15">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P15">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q15">
-        <v>1460.794153737948</v>
+        <v>1034.707489379764</v>
       </c>
       <c r="R15">
-        <v>13147.14738364153</v>
+        <v>9312.367404417877</v>
       </c>
       <c r="S15">
-        <v>0.0639636555863872</v>
+        <v>0.05287589544572174</v>
       </c>
       <c r="T15">
-        <v>0.0639636555863872</v>
+        <v>0.05287589544572175</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H16">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N16">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O16">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P16">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q16">
-        <v>2291.691244534175</v>
+        <v>1805.486620772528</v>
       </c>
       <c r="R16">
-        <v>20625.22120080757</v>
+        <v>16249.37958695275</v>
       </c>
       <c r="S16">
-        <v>0.1003460679936558</v>
+        <v>0.09226445422352494</v>
       </c>
       <c r="T16">
-        <v>0.1003460679936558</v>
+        <v>0.09226445422352494</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H17">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N17">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O17">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P17">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q17">
-        <v>264.7758980356045</v>
+        <v>266.2251471945139</v>
       </c>
       <c r="R17">
-        <v>2382.98308232044</v>
+        <v>2396.026324750625</v>
       </c>
       <c r="S17">
-        <v>0.01159371722989791</v>
+        <v>0.01360470779670989</v>
       </c>
       <c r="T17">
-        <v>0.01159371722989791</v>
+        <v>0.0136047077967099</v>
       </c>
     </row>
   </sheetData>
